--- a/biology/Botanique/Daucus_carota_subsp._commutatus/Daucus_carota_subsp._commutatus.xlsx
+++ b/biology/Botanique/Daucus_carota_subsp._commutatus/Daucus_carota_subsp._commutatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carotte changeante, Carotte variable, Carotte
 Daucus carota subsp. commutatus, la Carotte changeante, Carotte variable ou simplement Carotte, est une sous-espèce méditerranéenne de Carotte sauvage (Daucus carota), dans la famille des Apiaceae et le genre Daucus.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce de D. carota appartient au groupe des Gummifera (Carottes à gomme)[2],[3]. C'est une plante robuste, vivace, de grande taille (50 à 120 cm), à tiges plus ou moins velues et hirsutes. Les rameaux semblent très divariqués. Les feuilles sont divisées en très nombreux segments par rapport aux autres taxons du groupe. Les ombelles ont généralement des rayons très nombreux, bien bombées en pleine floraison, qui a lieu d'avril à juillet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce de D. carota appartient au groupe des Gummifera (Carottes à gomme),. C'est une plante robuste, vivace, de grande taille (50 à 120 cm), à tiges plus ou moins velues et hirsutes. Les rameaux semblent très divariqués. Les feuilles sont divisées en très nombreux segments par rapport aux autres taxons du groupe. Les ombelles ont généralement des rayons très nombreux, bien bombées en pleine floraison, qui a lieu d'avril à juillet.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Carotte changeante est endémique de la région méditerranéenne, présente en Corse[4], Italie, Espagne, au nord de l'Algérie, en Tunisie, Grèce, Albanie et Croatie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Carotte changeante est endémique de la région méditerranéenne, présente en Corse, Italie, Espagne, au nord de l'Algérie, en Tunisie, Grèce, Albanie et Croatie.
 </t>
         </is>
       </c>
@@ -574,20 +590,22 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Daucus carota subsp. commutatus a pour synonymes :
-Daucus carota subsp. dentatus (Bertol.) Fiori[6]
-Daucus carota var. commutatus Paol., 1900[7],[8] (basionyme)[6]
-Daucus commutatus (Paol.) Thell.[8]
-Daucus dentatus Bertol[6].
-Daucus gingidium subsp. commutatus (Paol.) O.Bolòs &amp; Vigo, 1974[1],[7],[8],[6]
-Daucus gingidium subsp. mauritanicus Onno, 1936[1]
-Daucus gingidium var. commutatus Paol.[1]
-Daucus gingidium var. tenuisectus (Pályi) Onno[6]
-Daucus hispidus var. tenuisectus Pályi[6]
-Daucus paralias Pomel, 1874[7],[8]
-Daucus siculus sensu Gren. &amp; Godr., 1848[1]</t>
+Daucus carota subsp. dentatus (Bertol.) Fiori
+Daucus carota var. commutatus Paol., 1900, (basionyme)
+Daucus commutatus (Paol.) Thell.
+Daucus dentatus Bertol.
+Daucus gingidium subsp. commutatus (Paol.) O.Bolòs &amp; Vigo, 1974
+Daucus gingidium subsp. mauritanicus Onno, 1936
+Daucus gingidium var. commutatus Paol.
+Daucus gingidium var. tenuisectus (Pályi) Onno
+Daucus hispidus var. tenuisectus Pályi
+Daucus paralias Pomel, 1874,
+Daucus siculus sensu Gren. &amp; Godr., 1848</t>
         </is>
       </c>
     </row>
@@ -615,9 +633,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Deux variétés appartiennent à la sous-espèce commutatus selon l'INPN      (8 avril 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deux variétés appartiennent à la sous-espèce commutatus selon l'INPN      (8 avril 2021) :
 Daucus carota var. commutatus Paol., 1900
 Daucus carota var. tenuisectus (Degen ex Palyi) Reduron, 2007</t>
         </is>
@@ -647,9 +667,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est classée « Espèce quasi menacée » sur la Liste rouge de la flore vasculaire de France métropolitaine[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est classée « Espèce quasi menacée » sur la Liste rouge de la flore vasculaire de France métropolitaine.
 </t>
         </is>
       </c>
